--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_239__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_239__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6070,7 +6070,7 @@
                   <c:v>355.2948303222656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>361.3465881347656</c:v>
+                  <c:v>361.3466186523438</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>356.7199096679688</c:v>
@@ -6166,13 +6166,13 @@
                   <c:v>347.2078552246094</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>358.1903076171875</c:v>
+                  <c:v>358.1903381347656</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>334.9524536132812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>363.3786926269531</c:v>
+                  <c:v>363.3787231445312</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>359.3033447265625</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>335.4009399414062</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>347.8130798339844</c:v>
+                  <c:v>347.8131103515625</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>351.2351989746094</c:v>
@@ -6211,7 +6211,7 @@
                   <c:v>358.9957885742188</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>390.2554626464844</c:v>
+                  <c:v>390.2554931640625</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>352.4421691894531</c:v>
@@ -6226,7 +6226,7 @@
                   <c:v>347.1380310058594</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>362.0511779785156</c:v>
+                  <c:v>362.0511474609375</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>339.9894714355469</c:v>
@@ -6235,7 +6235,7 @@
                   <c:v>368.1497192382812</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>355.994140625</c:v>
+                  <c:v>355.9941101074219</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>361.4815368652344</c:v>
@@ -6271,10 +6271,10 @@
                   <c:v>356.3647155761719</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>346.9273681640625</c:v>
+                  <c:v>346.9273986816406</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>349.9525451660156</c:v>
+                  <c:v>349.9525146484375</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>360.3853149414062</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>356.0130615234375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>346.4150695800781</c:v>
+                  <c:v>346.4150390625</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>362.0654296875</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7087,8 +7099,14 @@
       <c r="H3">
         <v>391</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>391</v>
+      </c>
+      <c r="S3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>349.6534729003906</v>
       </c>
       <c r="G4">
+        <v>391</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>391</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7139,8 +7163,14 @@
       <c r="H5">
         <v>391</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>391</v>
+      </c>
+      <c r="S5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7157,16 +7187,22 @@
         <v>343.107</v>
       </c>
       <c r="F6">
-        <v>361.3465881347656</v>
+        <v>361.3466186523438</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>391</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7191,8 +7227,14 @@
       <c r="H7">
         <v>391</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>391</v>
+      </c>
+      <c r="S7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>362.0372009277344</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>358.0832824707031</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>361.5178527832031</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>355.0586547851562</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>357.3007202148438</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>355.1053771972656</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>340.6064147949219</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>362.207763671875</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7809,7 +7851,7 @@
         <v>336.984</v>
       </c>
       <c r="F38">
-        <v>358.1903076171875</v>
+        <v>358.1903381347656</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7849,7 +7891,7 @@
         <v>339.952</v>
       </c>
       <c r="F40">
-        <v>363.3786926269531</v>
+        <v>363.3787231445312</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7909,7 +7951,7 @@
         <v>361.758</v>
       </c>
       <c r="F43">
-        <v>347.8130798339844</v>
+        <v>347.8131103515625</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8109,7 +8151,7 @@
         <v>361.705</v>
       </c>
       <c r="F53">
-        <v>390.2554626464844</v>
+        <v>390.2554931640625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8209,7 +8251,7 @@
         <v>360.873</v>
       </c>
       <c r="F58">
-        <v>362.0511779785156</v>
+        <v>362.0511474609375</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8269,7 +8311,7 @@
         <v>351.818</v>
       </c>
       <c r="F61">
-        <v>355.994140625</v>
+        <v>355.9941101074219</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8509,7 +8551,7 @@
         <v>360.138</v>
       </c>
       <c r="F73">
-        <v>346.9273681640625</v>
+        <v>346.9273986816406</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8529,7 +8571,7 @@
         <v>338.29</v>
       </c>
       <c r="F74">
-        <v>349.9525451660156</v>
+        <v>349.9525146484375</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9009,7 +9051,7 @@
         <v>338.575</v>
       </c>
       <c r="F98">
-        <v>346.4150695800781</v>
+        <v>346.4150390625</v>
       </c>
     </row>
     <row r="99" spans="1:6">
